--- a/biology/Botanique/Omphalodes_linifolia/Omphalodes_linifolia.xlsx
+++ b/biology/Botanique/Omphalodes_linifolia/Omphalodes_linifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite bourrache - Omphalodes linifolia - est une espèce de plantes de la famille des Boraginacées originaire d'Europe et d'Afrique du Nord.
 Nom russe : Пупочник льнолистный
@@ -512,12 +524,14 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Comme le genre, Omphalodes linifolia fait partie de la sous-famille Boraginoideae.
 La plante est décrite une première fois, en 1753, par Carl von Linné dans le genre Cynoglossum : Cynoglossum linifolium L.
-En 1794, Conrad Moench la place dans le genre Omphalodes[1].
-En 1819, Johann Jakob Römer et Josef August Schultes la déplacent dans le genre Picotia : Picotia linifolia (Willd.) Roem. &amp; Schult.[2].
+En 1794, Conrad Moench la place dans le genre Omphalodes.
+En 1819, Johann Jakob Römer et Josef August Schultes la déplacent dans le genre Picotia : Picotia linifolia (Willd.) Roem. &amp; Schult..
 En 1953, Mikhail Grigoríevič Popov confirme son classement dans le genre Omphalodes.
 Les deux synonymes suivants sont donc recensés :
 Cynoglossum linifolium L.
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante herbacée annuelle, de 10 à 30 centimètres de haut.
 Les tiges, grêles, érigées, non ramifiées, portent des feuilles alternes, lancéolées vert-glauque, minces, à une nervure centrale. La forme de la plante est à l'origine de l'épithète spécifique.
@@ -583,11 +599,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite bourrache est originaire d'Europe occidentale méridionale (Espagne, France, Portugal) et d'Afrique du Nord (Algérie).
 Les lieux secs, arides et ensoleillés constituent son habitat préférentiel.
-Elle est maintenant largement répandue dans l'ensemble des pays à climat tempéré comme plante ornementale[3].
+Elle est maintenant largement répandue dans l'ensemble des pays à climat tempéré comme plante ornementale.
 			Fleurs
 			Floraison
 </t>
